--- a/package_testdaten/2022.11.30_testdaten_rev2/labels_rev2.xlsx
+++ b/package_testdaten/2022.11.30_testdaten_rev2/labels_rev2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4xr0\Documents\GitHub\hugepackage\package_testdaten\2022.11.30_testdaten_rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA163E5-E0D6-4434-9C29-74820EE1DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74338C82-7085-4810-9C31-0CF1F5F2C56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12552" yWindow="2340" windowWidth="12960" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,8 +32,15 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0&quot;.png&quot;"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -214,29 +221,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading (user)" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Result (user)" xfId="15"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Result (user)" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,21 +555,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1">
@@ -569,7 +578,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -577,7 +586,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -586,7 +595,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -595,7 +604,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -604,7 +613,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -613,7 +622,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -622,7 +631,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -631,7 +640,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -640,7 +649,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -649,7 +658,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -658,7 +667,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -667,7 +676,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -676,7 +685,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -685,7 +694,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -694,7 +703,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -703,7 +712,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -712,7 +721,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -721,7 +730,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -730,7 +739,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -739,7 +748,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -748,7 +757,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -757,7 +766,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -766,7 +775,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -775,7 +784,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -784,7 +793,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -793,7 +802,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -802,7 +811,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -811,7 +820,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -820,7 +829,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -829,7 +838,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -838,7 +847,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -847,7 +856,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -856,7 +865,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -865,7 +874,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="A35" s="1">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
@@ -874,7 +883,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -883,7 +892,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -892,7 +901,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -901,7 +910,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39">
+      <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40">
+      <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -919,7 +928,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41">
+      <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -928,7 +937,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42">
+      <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
@@ -937,7 +946,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43">
+      <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -946,7 +955,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44">
+      <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -955,7 +964,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45">
+      <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -964,7 +973,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46">
+      <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -973,7 +982,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47">
+      <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -982,7 +991,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48">
+      <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -991,7 +1000,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49">
+      <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -1000,7 +1009,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50">
+      <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -1009,7 +1018,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51">
+      <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -1018,7 +1027,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52">
+      <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -1027,7 +1036,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53">
+      <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -1036,7 +1045,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54">
+      <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -1045,7 +1054,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55">
+      <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -1054,7 +1063,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56">
+      <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -1063,7 +1072,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57">
+      <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -1072,7 +1081,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58">
+      <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -1081,7 +1090,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -1090,7 +1099,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60">
+      <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -1099,7 +1108,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61">
+      <c r="A61" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -1108,7 +1117,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62">
+      <c r="A62" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -1117,7 +1126,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63">
+      <c r="A63" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -1126,7 +1135,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64">
+      <c r="A64" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65">
+      <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -1144,7 +1153,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66">
+      <c r="A66" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -1153,7 +1162,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67">
+      <c r="A67" s="1">
         <f t="shared" ref="A67:A98" si="2">A66+1</f>
         <v>66</v>
       </c>
@@ -1162,7 +1171,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68">
+      <c r="A68" s="1">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
@@ -1171,7 +1180,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69">
+      <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
@@ -1180,7 +1189,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70">
+      <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -1189,7 +1198,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71">
+      <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1198,7 +1207,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72">
+      <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
@@ -1207,7 +1216,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73">
+      <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
@@ -1216,7 +1225,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74">
+      <c r="A74" s="1">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
@@ -1225,7 +1234,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75">
+      <c r="A75" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
@@ -1234,7 +1243,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76">
+      <c r="A76" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -1243,7 +1252,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77">
+      <c r="A77" s="1">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -1252,7 +1261,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78">
+      <c r="A78" s="1">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
@@ -1261,7 +1270,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79">
+      <c r="A79" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
@@ -1270,7 +1279,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80">
+      <c r="A80" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
@@ -1279,7 +1288,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81">
+      <c r="A81" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
@@ -1288,7 +1297,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82">
+      <c r="A82" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
@@ -1297,7 +1306,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83">
+      <c r="A83" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
@@ -1306,7 +1315,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84">
+      <c r="A84" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
@@ -1315,7 +1324,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85">
+      <c r="A85" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -1324,7 +1333,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86">
+      <c r="A86" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
@@ -1333,7 +1342,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87">
+      <c r="A87" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
@@ -1342,7 +1351,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88">
+      <c r="A88" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -1351,7 +1360,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89">
+      <c r="A89" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -1360,7 +1369,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90">
+      <c r="A90" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
@@ -1369,7 +1378,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91">
+      <c r="A91" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -1378,7 +1387,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92">
+      <c r="A92" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -1387,7 +1396,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93">
+      <c r="A93" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -1396,7 +1405,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94">
+      <c r="A94" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95">
+      <c r="A95" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -1414,7 +1423,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96">
+      <c r="A96" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -1423,7 +1432,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97">
+      <c r="A97" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
@@ -1432,7 +1441,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98">
+      <c r="A98" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
@@ -1441,7 +1450,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99">
+      <c r="A99" s="1">
         <f t="shared" ref="A99:A130" si="3">A98+1</f>
         <v>98</v>
       </c>
@@ -1450,7 +1459,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100">
+      <c r="A100" s="1">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
@@ -1459,7 +1468,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101">
+      <c r="A101" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
@@ -1468,7 +1477,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102">
+      <c r="A102" s="1">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
@@ -1477,7 +1486,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103">
+      <c r="A103" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
@@ -1486,7 +1495,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104">
+      <c r="A104" s="1">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
@@ -1495,7 +1504,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105">
+      <c r="A105" s="1">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
@@ -1504,7 +1513,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106">
+      <c r="A106" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
@@ -1513,7 +1522,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107">
+      <c r="A107" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
@@ -1522,7 +1531,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108">
+      <c r="A108" s="1">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
@@ -1531,7 +1540,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109">
+      <c r="A109" s="1">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
@@ -1540,7 +1549,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110">
+      <c r="A110" s="1">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
@@ -1549,7 +1558,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111">
+      <c r="A111" s="1">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
@@ -1558,7 +1567,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112">
+      <c r="A112" s="1">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
@@ -1567,7 +1576,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113">
+      <c r="A113" s="1">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
@@ -1576,7 +1585,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114">
+      <c r="A114" s="1">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
@@ -1585,7 +1594,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115">
+      <c r="A115" s="1">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
@@ -1594,7 +1603,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116">
+      <c r="A116" s="1">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
@@ -1603,7 +1612,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117">
+      <c r="A117" s="1">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
@@ -1612,7 +1621,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118">
+      <c r="A118" s="1">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
@@ -1621,7 +1630,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119">
+      <c r="A119" s="1">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
@@ -1630,7 +1639,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120">
+      <c r="A120" s="1">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
@@ -1639,7 +1648,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121">
+      <c r="A121" s="1">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -1648,7 +1657,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122">
+      <c r="A122" s="1">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
@@ -1657,7 +1666,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123">
+      <c r="A123" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
@@ -1666,7 +1675,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124">
+      <c r="A124" s="1">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
@@ -1675,7 +1684,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125">
+      <c r="A125" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
@@ -1684,7 +1693,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126">
+      <c r="A126" s="1">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
@@ -1693,7 +1702,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127">
+      <c r="A127" s="1">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
@@ -1702,7 +1711,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128">
+      <c r="A128" s="1">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
@@ -1711,7 +1720,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129">
+      <c r="A129" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
@@ -1720,7 +1729,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130">
+      <c r="A130" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
@@ -1729,7 +1738,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131">
+      <c r="A131" s="1">
         <f t="shared" ref="A131:A162" si="4">A130+1</f>
         <v>130</v>
       </c>
@@ -1738,7 +1747,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132">
+      <c r="A132" s="1">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
@@ -1747,7 +1756,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133">
+      <c r="A133" s="1">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
@@ -1756,7 +1765,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134">
+      <c r="A134" s="1">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
@@ -1765,7 +1774,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135">
+      <c r="A135" s="1">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
@@ -1774,7 +1783,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136">
+      <c r="A136" s="1">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
@@ -1783,7 +1792,7 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137">
+      <c r="A137" s="1">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
@@ -1792,7 +1801,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138">
+      <c r="A138" s="1">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
@@ -1801,7 +1810,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139">
+      <c r="A139" s="1">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
@@ -1810,7 +1819,7 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140">
+      <c r="A140" s="1">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
@@ -1819,7 +1828,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141">
+      <c r="A141" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
@@ -1828,7 +1837,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142">
+      <c r="A142" s="1">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
@@ -1837,7 +1846,7 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143">
+      <c r="A143" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
@@ -1846,7 +1855,7 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144">
+      <c r="A144" s="1">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
@@ -1855,7 +1864,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145">
+      <c r="A145" s="1">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
@@ -1864,7 +1873,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146">
+      <c r="A146" s="1">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
@@ -1873,7 +1882,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147">
+      <c r="A147" s="1">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
@@ -1882,7 +1891,7 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148">
+      <c r="A148" s="1">
         <f t="shared" si="4"/>
         <v>147</v>
       </c>
@@ -1891,7 +1900,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149">
+      <c r="A149" s="1">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
@@ -1900,7 +1909,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150">
+      <c r="A150" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
@@ -1909,7 +1918,7 @@
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151">
+      <c r="A151" s="1">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
@@ -1918,7 +1927,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152">
+      <c r="A152" s="1">
         <f t="shared" si="4"/>
         <v>151</v>
       </c>
@@ -1927,7 +1936,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153">
+      <c r="A153" s="1">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
@@ -1936,7 +1945,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154">
+      <c r="A154" s="1">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
@@ -1945,7 +1954,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155">
+      <c r="A155" s="1">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
@@ -1954,7 +1963,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156">
+      <c r="A156" s="1">
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
@@ -1963,7 +1972,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157">
+      <c r="A157" s="1">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
@@ -1972,7 +1981,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158">
+      <c r="A158" s="1">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
@@ -1981,7 +1990,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159">
+      <c r="A159" s="1">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
@@ -1990,7 +1999,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160">
+      <c r="A160" s="1">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
@@ -1999,7 +2008,7 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161">
+      <c r="A161" s="1">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
@@ -2008,7 +2017,7 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162">
+      <c r="A162" s="1">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
@@ -2017,7 +2026,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163">
+      <c r="A163" s="1">
         <f t="shared" ref="A163:A194" si="5">A162+1</f>
         <v>162</v>
       </c>
@@ -2026,7 +2035,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164">
+      <c r="A164" s="1">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
@@ -2035,7 +2044,7 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165">
+      <c r="A165" s="1">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
@@ -2044,7 +2053,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166">
+      <c r="A166" s="1">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
@@ -2053,7 +2062,7 @@
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167">
+      <c r="A167" s="1">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
@@ -2062,7 +2071,7 @@
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168">
+      <c r="A168" s="1">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
@@ -2071,7 +2080,7 @@
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169">
+      <c r="A169" s="1">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
@@ -2080,7 +2089,7 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170">
+      <c r="A170" s="1">
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
@@ -2089,7 +2098,7 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171">
+      <c r="A171" s="1">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
@@ -2098,7 +2107,7 @@
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172">
+      <c r="A172" s="1">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
@@ -2107,7 +2116,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173">
+      <c r="A173" s="1">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
@@ -2116,7 +2125,7 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174">
+      <c r="A174" s="1">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
@@ -2125,7 +2134,7 @@
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175">
+      <c r="A175" s="1">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
@@ -2134,7 +2143,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176">
+      <c r="A176" s="1">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
@@ -2143,7 +2152,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177">
+      <c r="A177" s="1">
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
@@ -2152,7 +2161,7 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178">
+      <c r="A178" s="1">
         <f t="shared" si="5"/>
         <v>177</v>
       </c>
@@ -2161,7 +2170,7 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179">
+      <c r="A179" s="1">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
@@ -2170,7 +2179,7 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180">
+      <c r="A180" s="1">
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
@@ -2179,7 +2188,7 @@
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181">
+      <c r="A181" s="1">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
@@ -2188,7 +2197,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182">
+      <c r="A182" s="1">
         <f t="shared" si="5"/>
         <v>181</v>
       </c>
@@ -2197,7 +2206,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183">
+      <c r="A183" s="1">
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
@@ -2206,7 +2215,7 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184">
+      <c r="A184" s="1">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
@@ -2215,7 +2224,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185">
+      <c r="A185" s="1">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
@@ -2224,7 +2233,7 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186">
+      <c r="A186" s="1">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
@@ -2233,7 +2242,7 @@
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187">
+      <c r="A187" s="1">
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
@@ -2242,7 +2251,7 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188">
+      <c r="A188" s="1">
         <f t="shared" si="5"/>
         <v>187</v>
       </c>
@@ -2251,7 +2260,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189">
+      <c r="A189" s="1">
         <f t="shared" si="5"/>
         <v>188</v>
       </c>
@@ -2260,7 +2269,7 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190">
+      <c r="A190" s="1">
         <f t="shared" si="5"/>
         <v>189</v>
       </c>
@@ -2269,7 +2278,7 @@
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191">
+      <c r="A191" s="1">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
@@ -2278,7 +2287,7 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192">
+      <c r="A192" s="1">
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
@@ -2287,7 +2296,7 @@
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193">
+      <c r="A193" s="1">
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
@@ -2296,7 +2305,7 @@
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194">
+      <c r="A194" s="1">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
@@ -2305,7 +2314,7 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195">
+      <c r="A195" s="1">
         <f t="shared" ref="A195:A205" si="6">A194+1</f>
         <v>194</v>
       </c>
@@ -2314,7 +2323,7 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196">
+      <c r="A196" s="1">
         <f t="shared" si="6"/>
         <v>195</v>
       </c>
@@ -2323,7 +2332,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197">
+      <c r="A197" s="1">
         <f t="shared" si="6"/>
         <v>196</v>
       </c>
@@ -2332,7 +2341,7 @@
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198">
+      <c r="A198" s="1">
         <f t="shared" si="6"/>
         <v>197</v>
       </c>
@@ -2341,7 +2350,7 @@
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199">
+      <c r="A199" s="1">
         <f t="shared" si="6"/>
         <v>198</v>
       </c>
@@ -2350,7 +2359,7 @@
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200">
+      <c r="A200" s="1">
         <f t="shared" si="6"/>
         <v>199</v>
       </c>
@@ -2359,7 +2368,7 @@
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201">
+      <c r="A201" s="1">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -2368,7 +2377,7 @@
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202">
+      <c r="A202" s="1">
         <f t="shared" si="6"/>
         <v>201</v>
       </c>
@@ -2377,7 +2386,7 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203">
+      <c r="A203" s="1">
         <f t="shared" si="6"/>
         <v>202</v>
       </c>
@@ -2386,7 +2395,7 @@
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204">
+      <c r="A204" s="1">
         <f t="shared" si="6"/>
         <v>203</v>
       </c>
@@ -2395,7 +2404,7 @@
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205">
+      <c r="A205" s="1">
         <f t="shared" si="6"/>
         <v>204</v>
       </c>
@@ -2405,6 +2414,7 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
